--- a/users/management/commands/conditions_data.xlsx
+++ b/users/management/commands/conditions_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Smn-20/Downloads/who/erp_backend/users/management/commands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Drive pc\AfrikaStream Docs\OA\Ubuzima Connect\Citizen App - Interactions\Citizen STG Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C8E7B5-E2B9-FF44-ADDE-464E32C7E46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5F93BA-72FB-4304-AEB2-764E7F02C6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19180" xr2:uid="{4BF255EF-7AEA-7649-A72A-2EE99A30A020}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4BF255EF-7AEA-7649-A72A-2EE99A30A020}"/>
   </bookViews>
   <sheets>
     <sheet name="conditions_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,15 +83,9 @@
     <t>Proper eyelid hygiene.</t>
   </si>
   <si>
-    <t>Chalazion: Warm compression, incision and drainage, steroid injection. Stye: Topical antibiotics, warm compresses, lash epilation.</t>
-  </si>
-  <si>
     <t>Clinical examination.</t>
   </si>
   <si>
-    <t>Chalazion: Gradually enlarging painless nodule. Stye: Red, painful swelling on the eyelid.</t>
-  </si>
-  <si>
     <t>Chalazion, stye.</t>
   </si>
   <si>
@@ -254,15 +248,9 @@
     <t>Surgical options for severe cases.</t>
   </si>
   <si>
-    <t>Open angle: Timolol eye drops, referral for further tests and surgery. Angle closure: Emergency measures, Acetazolamide, Timolol, referral.</t>
-  </si>
-  <si>
     <t>Intraocular pressure measurement, optic nerve evaluation.</t>
   </si>
   <si>
-    <t>Open angle: Gradual vision loss, raised intraocular pressure. Angle closure: Acute redness, pain, headache, severe intraocular pressure.</t>
-  </si>
-  <si>
     <t>Raised intraocular pressure, genetic factors.</t>
   </si>
   <si>
@@ -464,15 +452,9 @@
     <t>Regular eye check-ups, proper use of corrective lenses.</t>
   </si>
   <si>
-    <t>Hypermetropia: Convex lenses. Myopia: Concave lenses. Astigmatism: Cylindrical lenses. Presbyopia: Convex lenses.</t>
-  </si>
-  <si>
     <t>Cycloplegic refraction using Cyclopentolate eye drops 0.5%, 1%, 2%.</t>
   </si>
   <si>
-    <t>Hypermetropia: Blurred vision, eyestrain, headaches. Myopia: Poor distance vision. Astigmatism: Poor vision, eyestrain, headaches. Presbyopia: Difficulty seeing near objects, fatigue, eyestrain.</t>
-  </si>
-  <si>
     <t>Hypermetropia, myopia, astigmatism, presbyopia.</t>
   </si>
   <si>
@@ -491,15 +473,9 @@
     <t>Frequent hand washing, avoiding contact with infected material, not wearing contact lenses.</t>
   </si>
   <si>
-    <t>Allergic: Sodium cromoglycate 2% eye drops 6 hourly for 1-3 months, lubricants. Bacterial: Chloramphenicol 1% eye drops, Tetracycline eye ointment. Viral: Artificial tears, cold compresses, topical antibiotics.</t>
-  </si>
-  <si>
     <t>Clinical features are diagnostic; pus swab for gram stain, culture, and sensitivity if required.</t>
   </si>
   <si>
-    <t>Allergic: Itchy, teary eyes, brown discoloration. Bacterial: Matting of lashes, mucopurulent discharge, swollen eyelids. Viral: Burning sensation, watery discharge, associated with upper respiratory infections.</t>
-  </si>
-  <si>
     <t>Allergens, bacteria, viruses, chemicals.</t>
   </si>
   <si>
@@ -540,6 +516,38 @@
   </si>
   <si>
     <t>prognosis</t>
+  </si>
+  <si>
+    <t>Allergic: Itchy, teary eyes, brown discoloration. Bacterial: Matting of lashes, mucopurulent discharge, swollen eyelids.
+Viral: Burning sensation, watery discharge, associated with upper respiratory infections.</t>
+  </si>
+  <si>
+    <t>Allergic: Sodium cromoglycate 2% eye drops 6 hourly for 1-3 months, lubricants. 
+Bacterial: Chloramphenicol 1% eye drops, Tetracycline eye ointment. Viral: Artificial tears, cold compresses, topical antibiotics.</t>
+  </si>
+  <si>
+    <t>Hypermetropia: Blurred vision, eyestrain, headaches. Myopia: Poor distance vision
+Astigmatism: Poor vision, eyestrain, headaches. Presbyopia: Difficulty seeing near objects, fatigue, eyestrain.</t>
+  </si>
+  <si>
+    <t>Open angle: Gradual vision loss, raised intraocular pressure. Angle closure:
+Acute redness, pain, headache, severe intraocular pressure.</t>
+  </si>
+  <si>
+    <t>Open angle: Timolol eye drops, referral for further tests and surgery. Angle closure:
+Emergency measures, Acetazolamide, Timolol, referral.</t>
+  </si>
+  <si>
+    <t>Chalazion: Gradually enlarging painless nodule.
+Stye: Red, painful swelling on the eyelid.</t>
+  </si>
+  <si>
+    <t>Chalazion: Warm compression, incision and drainage, steroid injection. 
+Stye: Topical antibiotics, warm compresses, lash epilation.</t>
+  </si>
+  <si>
+    <t>Hypermetropia: Convex lenses. Myopia: Concave lenses
+Astigmatism: Cylindrical lenses. Presbyopia: Convex lenses.</t>
   </si>
 </sst>
 </file>
@@ -977,507 +985,507 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="24.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>1</v>
@@ -1486,94 +1494,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -1591,7 +1599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
